--- a/data/Dynamique_transition_territoriale.xlsx
+++ b/data/Dynamique_transition_territoriale.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t xml:space="preserve">Numero</t>
   </si>
@@ -58,10 +58,13 @@
     <t xml:space="preserve">Mono</t>
   </si>
   <si>
+    <t xml:space="preserve">1b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Un syndicat mixte</t>
   </si>
   <si>
-    <t xml:space="preserve">Non applicable à l’échelle de mon syndicat (SSI syndicat)</t>
+    <t xml:space="preserve">Oui ;Non ;Je ne sais pas ;Non applicable à l’échelle de mon syndicat (SSI syndicat)</t>
   </si>
   <si>
     <t xml:space="preserve">1.1</t>
@@ -138,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,11 +168,6 @@
       <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -268,7 +266,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,11 +274,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,6 +298,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -308,7 +412,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,21 +478,21 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
+      <c r="A3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
@@ -411,28 +515,28 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5"/>
@@ -468,13 +572,13 @@
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
@@ -499,28 +603,28 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="5"/>
@@ -545,13 +649,13 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>

--- a/data/Dynamique_transition_territoriale.xlsx
+++ b/data/Dynamique_transition_territoriale.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/Dynamique_transition_territoriale.xlsx
+++ b/data/Dynamique_transition_territoriale.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t xml:space="preserve">Numero</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Avez-vous enclenché une démarche de transition territoriale ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Oui ;Non ;Je ne sais pas </t>
+    <t xml:space="preserve">Oui;Non;Je ne sais pas </t>
   </si>
   <si>
     <t xml:space="preserve">radio</t>
@@ -58,16 +58,19 @@
     <t xml:space="preserve">Mono</t>
   </si>
   <si>
+    <t xml:space="preserve">1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un syndicat mixte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui;Non;Je ne sais pas;Non applicable à l’échelle de mon syndicat (SSI syndicat)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1b</t>
   </si>
   <si>
-    <t xml:space="preserve">Un syndicat mixte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui ;Non ;Je ne sais pas ;Non applicable à l’échelle de mon syndicat (SSI syndicat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1</t>
+    <t xml:space="preserve">1;q1a</t>
   </si>
   <si>
     <t xml:space="preserve">Oui</t>
@@ -298,112 +301,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -412,7 +309,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,26 +414,26 @@
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5"/>
@@ -572,13 +469,13 @@
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
@@ -603,28 +500,28 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="5"/>
@@ -649,13 +546,13 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>

--- a/data/Dynamique_transition_territoriale.xlsx
+++ b/data/Dynamique_transition_territoriale.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Mono</t>
   </si>
   <si>
-    <t xml:space="preserve">1a</t>
+    <t xml:space="preserve">5a</t>
   </si>
   <si>
     <t xml:space="preserve">Un syndicat mixte</t>
@@ -67,10 +67,10 @@
     <t xml:space="preserve">Oui;Non;Je ne sais pas;Non applicable à l’échelle de mon syndicat (SSI syndicat)</t>
   </si>
   <si>
-    <t xml:space="preserve">1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;q1a</t>
+    <t xml:space="preserve">5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5;q5a</t>
   </si>
   <si>
     <t xml:space="preserve">Oui</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Oui ; Non, pas à ce stade</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1</t>
+    <t xml:space="preserve">6.1</t>
   </si>
   <si>
     <t xml:space="preserve">Transition :  Choisir les services d'expertise prioritaires ci-après : 2 réponses maximum</t>
@@ -301,6 +301,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -309,7 +415,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,7 +458,7 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
@@ -464,7 +570,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="9"/>
@@ -503,7 +609,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
@@ -540,7 +646,7 @@
     </row>
     <row r="12" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7"/>

--- a/data/Dynamique_transition_territoriale.xlsx
+++ b/data/Dynamique_transition_territoriale.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t xml:space="preserve">Numero</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multichoix 2 MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres besoins sur la dynamique de transition territoriale [Limité à 200 caractères]</t>
   </si>
   <si>
     <t xml:space="preserve">Autres besoins sur la dynamique de transition territoriale</t>
@@ -415,7 +418,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,10 +658,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
